--- a/src/main/resources/reports/Users.xlsx
+++ b/src/main/resources/reports/Users.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.petit.de.meurville\git\reports\src\main\resources\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5F08D2-EDAB-484B-9172-8B6309F699D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="13515" windowHeight="4770"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:C43"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
   <si>
     <t>code</t>
   </si>
@@ -59,12 +64,6 @@
     <t>Balice, Angela</t>
   </si>
   <si>
-    <t>be117282</t>
-  </si>
-  <si>
-    <t>Burgos Meneses, Eunice Priscila</t>
-  </si>
-  <si>
     <t>Funcional</t>
   </si>
   <si>
@@ -285,31 +284,52 @@
   </si>
   <si>
     <t>Visca, Diego</t>
+  </si>
+  <si>
+    <t>rd118547</t>
+  </si>
+  <si>
+    <t>Deiver</t>
+  </si>
+  <si>
+    <t>Prizont Adrian</t>
+  </si>
+  <si>
+    <t>dy118133</t>
+  </si>
+  <si>
+    <t>Defays Yanina</t>
+  </si>
+  <si>
+    <t>dm118627</t>
+  </si>
+  <si>
+    <t>Florencia de Marizini</t>
+  </si>
+  <si>
+    <t>gg118465</t>
+  </si>
+  <si>
+    <t>Gustavo Gutierrez</t>
+  </si>
+  <si>
+    <t>re118798</t>
+  </si>
+  <si>
+    <t>Enri</t>
+  </si>
+  <si>
+    <t>vf118620</t>
+  </si>
+  <si>
+    <t>Desconocido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,150 +339,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,194 +363,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -694,327 +396,47 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Comma[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
-    <cellStyle name="Currency[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="Normal 4" xfId="22"/>
-    <cellStyle name="60% - Accent3" xfId="23" builtinId="40"/>
-    <cellStyle name="Good" xfId="24" builtinId="26"/>
-    <cellStyle name="Output" xfId="25" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="27" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="28" builtinId="24"/>
-    <cellStyle name="Total" xfId="29" builtinId="25"/>
-    <cellStyle name="Bad" xfId="30" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="31" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="32" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1275,18 +697,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.85714285714286" customWidth="1"/>
-    <col min="2" max="2" width="29.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1345,18 +766,18 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
+      <c r="A6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1374,7 +795,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1385,18 +806,18 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1422,18 +843,18 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1451,11 +872,11 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1466,14 +887,14 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1481,52 +902,54 @@
         <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="2"/>
       <c r="C19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1537,18 +960,18 @@
         <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1563,14 +986,14 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1581,7 +1004,7 @@
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1592,18 +1015,18 @@
         <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1614,7 +1037,7 @@
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1625,7 +1048,7 @@
         <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1636,11 +1059,11 @@
         <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1651,18 +1074,18 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1673,7 +1096,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1687,7 +1110,7 @@
       <c r="A37" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
@@ -1734,19 +1157,19 @@
       <c r="B41" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C41" t="s">
-        <v>5</v>
+      <c r="C41" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" t="s">
         <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1756,12 +1179,78 @@
       <c r="B43" t="s">
         <v>89</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="7" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>